--- a/datos.xlsx
+++ b/datos.xlsx
@@ -1,39 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Windows\ServiceProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_195f\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4cc4ddfd4d7cd1/Github/Progreso/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{0FB066D2-45DD-2549-8F85-B4E3AB9E3921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6003609E-F335-3346-AFE6-3E1B82309E7B}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{0FB066D2-45DD-2549-8F85-B4E3AB9E3921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10136FA6-9232-484F-B599-AF32DD227548}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>19,17,25,0</t>
   </si>
@@ -122,7 +109,7 @@
     <t>5,5,0,0</t>
   </si>
   <si>
-    <t>0.9,2,3,4</t>
+    <t>1,2,3,4</t>
   </si>
 </sst>
 </file>
@@ -664,6 +651,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -967,154 +958,154 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
